--- a/SQE_holdings.xlsx
+++ b/SQE_holdings.xlsx
@@ -221,7 +221,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -678,10 +678,10 @@
         <v>62</v>
       </c>
       <c r="D2" s="1">
-        <v>0.004807695835958263</v>
+        <v>0.004847356702150149</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01065801668211286</v>
+        <v>0.0100871160018341</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -695,10 +695,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01334611960786102</v>
+        <v>0.01345760200373622</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01076197957580494</v>
+        <v>0.04049117898500043</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -712,10 +712,10 @@
         <v>64</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3080289647489456</v>
+        <v>0.3085120483164205</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003960907923483692</v>
+        <v>0.01129180959658482</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -729,10 +729,10 @@
         <v>65</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3250985259195167</v>
+        <v>0.3260168669762271</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00522041230228143</v>
+        <v>0.02087682672233826</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -746,10 +746,10 @@
         <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01793800250420591</v>
+        <v>0.01795031998672752</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003077165851349095</v>
+        <v>-0.008023283253362656</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -763,10 +763,10 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>0.001519130189457236</v>
+        <v>0.001517078705713794</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001035196687370732</v>
+        <v>0.005860048259220818</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -780,10 +780,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.003371651269354363</v>
+        <v>0.003319688253661207</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01305970149253743</v>
+        <v>-0.0148865784499056</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -797,10 +797,10 @@
         <v>63</v>
       </c>
       <c r="D9" s="1">
-        <v>0.003404990358398352</v>
+        <v>0.00338997276867256</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002032144836504823</v>
+        <v>0.0186967789707515</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -814,10 +814,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.002917170291349041</v>
+        <v>0.002901328045260299</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003054806828391765</v>
+        <v>0.007750540735400158</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -831,10 +831,10 @@
         <v>64</v>
       </c>
       <c r="D11" s="1">
-        <v>0.003253863638722534</v>
+        <v>0.003236329982137327</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003012581959950356</v>
+        <v>0.006043370067543519</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -848,10 +848,10 @@
         <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0174914893588023</v>
+        <v>0.01727043235305</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01027930951810119</v>
+        <v>0.006691900075700197</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -865,10 +865,10 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03340959387852389</v>
+        <v>0.03294832427779588</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01145062721132206</v>
+        <v>0.003156113750244272</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -882,10 +882,10 @@
         <v>63</v>
       </c>
       <c r="D14" s="1">
-        <v>0.002987937225640527</v>
+        <v>0.002980816484856472</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.006666666666666821</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -899,10 +899,10 @@
         <v>62</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01541681252518123</v>
+        <v>0.01558716005454894</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01346471632290847</v>
+        <v>0.008998127906274522</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -916,10 +916,10 @@
         <v>66</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01210900875654319</v>
+        <v>0.0119293321624477</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01248484848484854</v>
+        <v>-0.0155885602062108</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -933,10 +933,10 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03733647727233411</v>
+        <v>0.03705068603883611</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005283907353665906</v>
+        <v>0.00266974926375485</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -950,10 +950,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="1">
-        <v>0.05891669662466884</v>
+        <v>0.05901365566941491</v>
       </c>
       <c r="E18" s="1">
-        <v>0.004038484380567864</v>
+        <v>0.0143933120391182</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -967,10 +967,10 @@
         <v>65</v>
       </c>
       <c r="D19" s="1">
-        <v>0.007689220560404924</v>
+        <v>0.007584033857891666</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01132358455193094</v>
+        <v>-0.006523058252427161</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -984,10 +984,10 @@
         <v>63</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02196228216758176</v>
+        <v>0.0217860032624252</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.005656756601936097</v>
+        <v>0.003845433727478254</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="1">
-        <v>0.004435252081779736</v>
+        <v>0.004419975601755596</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.001063704053894443</v>
+        <v>-0.02626597255087548</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="1">
-        <v>0.005517724076682839</v>
+        <v>0.005513987546723972</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001710051301539117</v>
+        <v>0.02226858877086491</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>62</v>
       </c>
       <c r="D23" s="1">
-        <v>0.001323734820885744</v>
+        <v>0.001353212241585763</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02471042471042462</v>
+        <v>0.02185380557648853</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009895628731710808</v>
+        <v>0.009868385185812725</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0003708098487096301</v>
+        <v>0.007418947993174552</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="1">
-        <v>0.006196562446367836</v>
+        <v>0.006173166350085653</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001395820996531461</v>
+        <v>0.01736625863018348</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03369470599379159</v>
+        <v>0.03356085591792086</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.001593070144869757</v>
+        <v>0.0009723261032161812</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="1">
-        <v>0.00314559022925656</v>
+        <v>0.003132602797966926</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.001749781277340268</v>
+        <v>0.005083260297984449</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>63</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02676090935196045</v>
+        <v>0.02672704650374413</v>
       </c>
       <c r="E28" s="1">
-        <v>0.001120448179271483</v>
+        <v>0.007059532521200174</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01802425953411454</v>
+        <v>0.01795173195243088</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.001644643566041104</v>
+        <v>0.003010679391047599</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>33</v>
       </c>
       <c r="D30" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E30" s="1">
-        <v>0.002388855811899404</v>
+        <v>0.01248886279367079</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/SQE_holdings.xlsx
+++ b/SQE_holdings.xlsx
@@ -221,7 +221,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -678,10 +678,10 @@
         <v>62</v>
       </c>
       <c r="D2" s="1">
-        <v>0.004847356702150149</v>
+        <v>0.004824501144123577</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0100871160018341</v>
+        <v>0.00518606132290067</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -695,10 +695,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01345760200373622</v>
+        <v>0.01397565649578707</v>
       </c>
       <c r="E3" s="1">
-        <v>0.04049117898500043</v>
+        <v>0.02898791708236326</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -712,10 +712,10 @@
         <v>64</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3085120483164205</v>
+        <v>0.3074711562626142</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01129180959658482</v>
+        <v>0.007698954818533554</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -729,10 +729,10 @@
         <v>65</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3260168669762271</v>
+        <v>0.3283851687418638</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02087682672233826</v>
+        <v>0.01106718895193359</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -746,10 +746,10 @@
         <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01795031998672752</v>
+        <v>0.01775656655874776</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008023283253362656</v>
+        <v>0.02457793482528459</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -763,10 +763,10 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>0.001517078705713794</v>
+        <v>0.001514119825800824</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005860048259220818</v>
+        <v>-0.00784447476125516</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -780,10 +780,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.003319688253661207</v>
+        <v>0.003242550609209882</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0148865784499056</v>
+        <v>-0.01194457716196851</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -797,10 +797,10 @@
         <v>63</v>
       </c>
       <c r="D9" s="1">
-        <v>0.00338997276867256</v>
+        <v>0.003394065874179173</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0186967789707515</v>
+        <v>-0.01095490231878771</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -814,10 +814,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.002901328045260299</v>
+        <v>0.002900169488982751</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007750540735400158</v>
+        <v>-0.01086182336182318</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -831,10 +831,10 @@
         <v>64</v>
       </c>
       <c r="D11" s="1">
-        <v>0.003236329982137327</v>
+        <v>0.003231086264007707</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006043370067543519</v>
+        <v>0.007032348804500765</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -848,10 +848,10 @@
         <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01727043235305</v>
+        <v>0.01710666212465146</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006691900075700197</v>
+        <v>0.01663346012195865</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -865,10 +865,10 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03294832427779588</v>
+        <v>0.03289949479677524</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003156113750244272</v>
+        <v>-0.004665830035074259</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -882,10 +882,10 @@
         <v>63</v>
       </c>
       <c r="D14" s="1">
-        <v>0.002980816484856472</v>
+        <v>0.002987443107864177</v>
       </c>
       <c r="E14" s="1">
-        <v>0.006666666666666821</v>
+        <v>0.005877268798617052</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -899,10 +899,10 @@
         <v>62</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01558716005454894</v>
+        <v>0.01533371663149342</v>
       </c>
       <c r="E15" s="1">
-        <v>0.008998127906274522</v>
+        <v>0.002485451018428675</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -916,10 +916,10 @@
         <v>66</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0119293321624477</v>
+        <v>0.01158859391639358</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0155885602062108</v>
+        <v>-0.01696924324661553</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -933,10 +933,10 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03705068603883611</v>
+        <v>0.03680597042441652</v>
       </c>
       <c r="E17" s="1">
-        <v>0.00266974926375485</v>
+        <v>0.00279069767441853</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -950,10 +950,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="1">
-        <v>0.05901365566941491</v>
+        <v>0.05926397716054559</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0143933120391182</v>
+        <v>0.007755244484082269</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -967,10 +967,10 @@
         <v>65</v>
       </c>
       <c r="D19" s="1">
-        <v>0.007584033857891666</v>
+        <v>0.007494893137714079</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.006523058252427161</v>
+        <v>-0.004395937547369888</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -984,10 +984,10 @@
         <v>63</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0217860032624252</v>
+        <v>0.02209241289892726</v>
       </c>
       <c r="E20" s="1">
-        <v>0.003845433727478254</v>
+        <v>0.01085538772247241</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="1">
-        <v>0.004419975601755596</v>
+        <v>0.00428105503270424</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02626597255087548</v>
+        <v>-0.003377563329312383</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="1">
-        <v>0.005513987546723972</v>
+        <v>0.00560720091014507</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02226858877086491</v>
+        <v>0.01282004052311669</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>62</v>
       </c>
       <c r="D23" s="1">
-        <v>0.001353212241585763</v>
+        <v>0.001347706076188165</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02185380557648853</v>
+        <v>-0.01295143212951411</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009868385185812725</v>
+        <v>0.009750064106087954</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007418947993174552</v>
+        <v>0.0003707548568885333</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="1">
-        <v>0.006173166350085653</v>
+        <v>0.006204947737690928</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01736625863018348</v>
+        <v>0.0247596854063501</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03356085591792086</v>
+        <v>0.03287602387382755</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0009723261032161812</v>
+        <v>0.003191836939857806</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="1">
-        <v>0.003132602797966926</v>
+        <v>0.003108619171003387</v>
       </c>
       <c r="E27" s="1">
-        <v>0.005083260297984449</v>
+        <v>-0.002616431187859813</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>63</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02672704650374413</v>
+        <v>0.02669395318534637</v>
       </c>
       <c r="E28" s="1">
-        <v>0.007059532521200174</v>
+        <v>-0.003745318352059823</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01795173195243088</v>
+        <v>0.01786222444290835</v>
       </c>
       <c r="E29" s="1">
-        <v>0.003010679391047599</v>
+        <v>0.00451009132934943</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>33</v>
       </c>
       <c r="D30" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01248886279367079</v>
+        <v>0.007805359999675909</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/SQE_holdings.xlsx
+++ b/SQE_holdings.xlsx
@@ -221,7 +221,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -678,10 +678,10 @@
         <v>62</v>
       </c>
       <c r="D2" s="1">
-        <v>0.004824501144123577</v>
+        <v>0.01960966707285712</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00518606132290067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -695,10 +695,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01397565649578707</v>
+        <v>0.01791098877720068</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02898791708236326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -712,10 +712,10 @@
         <v>64</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3074711562626142</v>
+        <v>0.07573086526369423</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007698954818533554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -729,10 +729,10 @@
         <v>65</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3283851687418638</v>
+        <v>0.05514838154456997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01106718895193359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -746,10 +746,10 @@
         <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01775656655874776</v>
+        <v>0.07031555927505055</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02457793482528459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -763,10 +763,10 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>0.001514119825800824</v>
+        <v>0.02046365725647101</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.00784447476125516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -780,10 +780,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.003242550609209882</v>
+        <v>0.03426748136810068</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01194457716196851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -797,10 +797,10 @@
         <v>63</v>
       </c>
       <c r="D9" s="1">
-        <v>0.003394065874179173</v>
+        <v>0.02861557268803762</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01095490231878771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -814,10 +814,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.002900169488982751</v>
+        <v>0.02344302076072341</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01086182336182318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -831,10 +831,10 @@
         <v>64</v>
       </c>
       <c r="D11" s="1">
-        <v>0.003231086264007707</v>
+        <v>0.02595277968403563</v>
       </c>
       <c r="E11" s="1">
-        <v>0.007032348804500765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -848,10 +848,10 @@
         <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01710666212465146</v>
+        <v>0.02646439362045927</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01663346012195865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -865,10 +865,10 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03289949479677524</v>
+        <v>0.0431097005303081</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.004665830035074259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -882,10 +882,10 @@
         <v>63</v>
       </c>
       <c r="D14" s="1">
-        <v>0.002987443107864177</v>
+        <v>0.02356304749067617</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005877268798617052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -899,10 +899,10 @@
         <v>62</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01533371663149342</v>
+        <v>0.04032177966033035</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002485451018428675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -916,10 +916,10 @@
         <v>66</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01158859391639358</v>
+        <v>0.0299216135433361</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01696924324661553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -933,10 +933,10 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03680597042441652</v>
+        <v>0.04514445366983227</v>
       </c>
       <c r="E17" s="1">
-        <v>0.00279069767441853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -950,10 +950,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="1">
-        <v>0.05926397716054559</v>
+        <v>0.1166431764353922</v>
       </c>
       <c r="E18" s="1">
-        <v>0.007755244484082269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -967,10 +967,10 @@
         <v>65</v>
       </c>
       <c r="D19" s="1">
-        <v>0.007494893137714079</v>
+        <v>0.02882621959910472</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.004395937547369888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -984,10 +984,10 @@
         <v>63</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02209241289892726</v>
+        <v>0.02484373269927213</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01085538772247241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="1">
-        <v>0.00428105503270424</v>
+        <v>0.02368307422062893</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.003377563329312383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="1">
-        <v>0.00560720091014507</v>
+        <v>0.01317173334501593</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01282004052311669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>62</v>
       </c>
       <c r="D23" s="1">
-        <v>0.001347706076188165</v>
+        <v>0.01473703193701237</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01295143212951411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009750064106087954</v>
+        <v>0.03060231513558069</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0003707548568885333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="1">
-        <v>0.006204947737690928</v>
+        <v>0.01126375843900436</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0247596854063501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03287602387382755</v>
+        <v>0.03693162467281463</v>
       </c>
       <c r="E26" s="1">
-        <v>0.003191836939857806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="1">
-        <v>0.003108619171003387</v>
+        <v>0.02369747742822326</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.002616431187859813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>63</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02669395318534637</v>
+        <v>0.05392200843127764</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003745318352059823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01786222444290835</v>
+        <v>0.04169488545098993</v>
       </c>
       <c r="E29" s="1">
-        <v>0.00451009132934943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0.007805359999675909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/SQE_holdings.xlsx
+++ b/SQE_holdings.xlsx
@@ -681,7 +681,7 @@
         <v>0.01960966707285712</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.008836896145430151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -698,7 +698,7 @@
         <v>0.01791098877720068</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.01486011057128489</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -715,7 +715,7 @@
         <v>0.07573086526369423</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.002250574530469951</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -732,7 +732,7 @@
         <v>0.05514838154456997</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.005669606664236326</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -749,7 +749,7 @@
         <v>0.07031555927505055</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.01795521757498908</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -766,7 +766,7 @@
         <v>0.02046365725647101</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.003101309441764344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -783,7 +783,7 @@
         <v>0.03426748136810068</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.007986024457199981</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -800,7 +800,7 @@
         <v>0.02861557268803762</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.005285013212533052</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -817,7 +817,7 @@
         <v>0.02344302076072341</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.008166295471417895</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -834,7 +834,7 @@
         <v>0.02595277968403563</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.008844953173777315</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -851,7 +851,7 @@
         <v>0.02646439362045927</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>-0.006491297692612807</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -868,7 +868,7 @@
         <v>0.0431097005303081</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.0132180667794275</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -885,7 +885,7 @@
         <v>0.02356304749067617</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>-0.00231770369049733</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -902,7 +902,7 @@
         <v>0.04032177966033035</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.008572959457045837</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -919,7 +919,7 @@
         <v>0.0299216135433361</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>0.00117332638028822</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -936,7 +936,7 @@
         <v>0.04514445366983227</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>-0.005849197064766498</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -953,7 +953,7 @@
         <v>0.1166431764353922</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>0.008175466397752684</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -970,7 +970,7 @@
         <v>0.02882621959910472</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.0003122853038535212</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -987,7 +987,7 @@
         <v>0.02484373269927213</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>-0.01578616807981259</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1004,7 +1004,7 @@
         <v>0.02368307422062893</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>0.03623013962445842</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1021,7 +1021,7 @@
         <v>0.01317173334501593</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>0.015343083652269</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1038,7 +1038,7 @@
         <v>0.01473703193701237</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>0.00152710613387641</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1055,7 +1055,7 @@
         <v>0.03060231513558069</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>0.007501103103397577</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1072,7 +1072,7 @@
         <v>0.01126375843900436</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>-0.007232767232767334</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1089,7 +1089,7 @@
         <v>0.03693162467281463</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.003412470140886414</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1106,7 +1106,7 @@
         <v>0.02369747742822326</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>0.002127282396738206</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1123,7 +1123,7 @@
         <v>0.05392200843127764</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.001669449081802998</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1140,7 +1140,7 @@
         <v>0.04169488545098993</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>-0.005008923944959442</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>0.004739105398772203</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/SQE_holdings.xlsx
+++ b/SQE_holdings.xlsx
@@ -221,7 +221,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -678,10 +678,10 @@
         <v>62</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01960966707285712</v>
+        <v>0.01968964436431957</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008836896145430151</v>
+        <v>-0.005088846250104306</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -695,10 +695,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01791098877720068</v>
+        <v>0.01809141094757785</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01486011057128489</v>
+        <v>0.0002971424798192679</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -712,10 +712,10 @@
         <v>64</v>
       </c>
       <c r="D4" s="1">
-        <v>0.07573086526369423</v>
+        <v>0.07554329558030148</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002250574530469951</v>
+        <v>-0.01130667172699529</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -729,10 +729,10 @@
         <v>65</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05514838154456997</v>
+        <v>0.05519945514023255</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005669606664236326</v>
+        <v>0.009422222703147298</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -746,10 +746,10 @@
         <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07031555927505055</v>
+        <v>0.07124047432425994</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01795521757498908</v>
+        <v>-0.00919969564916634</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -763,10 +763,10 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02046365725647101</v>
+        <v>0.02030397046695205</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003101309441764344</v>
+        <v>-0.02592464569650876</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -780,10 +780,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03426748136810068</v>
+        <v>0.03383347999609961</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.007986024457199981</v>
+        <v>-0.02440251572327046</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -797,10 +797,10 @@
         <v>63</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02861557268803762</v>
+        <v>0.02863112047018495</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005285013212533052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -814,10 +814,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02344302076072341</v>
+        <v>0.02352298548747911</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008166295471417895</v>
+        <v>-0.003497790868924877</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -831,10 +831,10 @@
         <v>64</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02595277968403563</v>
+        <v>0.02605883523830671</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008844953173777315</v>
+        <v>0.001031459515213884</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -848,10 +848,10 @@
         <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02646439362045927</v>
+        <v>0.02616858965868466</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006491297692612807</v>
+        <v>-0.01380923849467885</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -865,10 +865,10 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0431097005303081</v>
+        <v>0.04347350192309157</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0132180667794275</v>
+        <v>-0.01527142327191788</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -882,10 +882,10 @@
         <v>63</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02356304749067617</v>
+        <v>0.02339755186419003</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00231770369049733</v>
+        <v>-0.01018584703359549</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -899,10 +899,10 @@
         <v>62</v>
       </c>
       <c r="D15" s="1">
-        <v>0.04032177966033035</v>
+        <v>0.04047563832648252</v>
       </c>
       <c r="E15" s="1">
-        <v>0.008572959457045837</v>
+        <v>-0.001947936957676588</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -916,10 +916,10 @@
         <v>66</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0299216135433361</v>
+        <v>0.0298154229300727</v>
       </c>
       <c r="E16" s="1">
-        <v>0.00117332638028822</v>
+        <v>-0.01725372745621467</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -933,10 +933,10 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <v>0.04514445366983227</v>
+        <v>0.04466870516214611</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005849197064766498</v>
+        <v>-0.009975395806589682</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -950,10 +950,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="1">
-        <v>0.1166431764353922</v>
+        <v>0.1170421138910421</v>
       </c>
       <c r="E18" s="1">
-        <v>0.008175466397752684</v>
+        <v>-0.008966527346122244</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -967,10 +967,10 @@
         <v>65</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02882621959910472</v>
+        <v>0.02869921300854188</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0003122853038535212</v>
+        <v>0.002934565434565384</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -984,10 +984,10 @@
         <v>63</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02484373269927213</v>
+        <v>0.02433621347846999</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01578616807981259</v>
+        <v>-0.02302207714113902</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02368307422062893</v>
+        <v>0.02442536094645045</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03623013962445842</v>
+        <v>-0.005807875479149738</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01317173334501593</v>
+        <v>0.01331074731710172</v>
       </c>
       <c r="E22" s="1">
-        <v>0.015343083652269</v>
+        <v>-0.007000302897721467</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>62</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01473703193701237</v>
+        <v>0.01468991987031358</v>
       </c>
       <c r="E23" s="1">
-        <v>0.00152710613387641</v>
+        <v>-0.002541296060991072</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03060231513558069</v>
+        <v>0.03068643998322176</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007501103103397577</v>
+        <v>-0.000145985401459936</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01126375843900436</v>
+        <v>0.0111295462035498</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.007232767232767334</v>
+        <v>-0.01062630816293653</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03693162467281463</v>
+        <v>0.03688286097370239</v>
       </c>
       <c r="E26" s="1">
-        <v>0.003412470140886414</v>
+        <v>-0.004153913423699307</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02369747742822326</v>
+        <v>0.02363587574843929</v>
       </c>
       <c r="E27" s="1">
-        <v>0.002127282396738206</v>
+        <v>-0.01503626393065638</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>63</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05392200843127764</v>
+        <v>0.05375726712389213</v>
       </c>
       <c r="E28" s="1">
-        <v>0.001669449081802998</v>
+        <v>-0.01412499999999994</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="1">
-        <v>0.04169488545098993</v>
+        <v>0.0412903595748935</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.005008923944959442</v>
+        <v>-0.0001157273463718855</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0.004739105398772203</v>
+        <v>-0.007987433940158439</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/SQE_holdings.xlsx
+++ b/SQE_holdings.xlsx
@@ -221,7 +221,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -678,10 +678,10 @@
         <v>62</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01968964436431957</v>
+        <v>0.01974717605567974</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005088846250104306</v>
+        <v>0.004024819721616391</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -695,10 +695,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01809141094757785</v>
+        <v>0.01824249741731455</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0002971424798192679</v>
+        <v>-0.002392936710949867</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -712,10 +712,10 @@
         <v>64</v>
       </c>
       <c r="D4" s="1">
-        <v>0.07554329558030148</v>
+        <v>0.07529053047448407</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01130667172699529</v>
+        <v>0.003794664278174098</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -729,10 +729,10 @@
         <v>65</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05519945514023255</v>
+        <v>0.05616819645840556</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009422222703147298</v>
+        <v>-0.003234702163525283</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -746,10 +746,10 @@
         <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07124047432425994</v>
+        <v>0.07115341685935515</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00919969564916634</v>
+        <v>0.01305501256632224</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -763,10 +763,10 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02030397046695205</v>
+        <v>0.01993684143026358</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02592464569650876</v>
+        <v>0.009581263307310017</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -780,10 +780,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03383347999609961</v>
+        <v>0.03327362888115944</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02440251572327046</v>
+        <v>0.03249097472924167</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -797,10 +797,10 @@
         <v>63</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02863112047018495</v>
+        <v>0.02886165100095902</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.009012392039053907</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -814,10 +814,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02352298548747911</v>
+        <v>0.02362944563972099</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003497790868924877</v>
+        <v>0.006096434509514026</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -831,10 +831,10 @@
         <v>64</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02605883523830671</v>
+        <v>0.02629574943337469</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001031459515213884</v>
+        <v>-0.003434655675768394</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -848,10 +848,10 @@
         <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02616858965868466</v>
+        <v>0.02601501457337559</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01380923849467885</v>
+        <v>0.01380008679299882</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -865,10 +865,10 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>0.04347350192309157</v>
+        <v>0.04315429172852744</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01527142327191788</v>
+        <v>0.01114459722483829</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -882,10 +882,10 @@
         <v>63</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02339755186419003</v>
+        <v>0.02334570021822055</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01018584703359549</v>
+        <v>0.01083228019498095</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -899,10 +899,10 @@
         <v>62</v>
       </c>
       <c r="D15" s="1">
-        <v>0.04047563832648252</v>
+        <v>0.04072205909160221</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001947936957676588</v>
+        <v>0.003962621244381292</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -916,10 +916,10 @@
         <v>66</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0298154229300727</v>
+        <v>0.02953691994570754</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01725372745621467</v>
+        <v>0.03199946998807479</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -933,10 +933,10 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <v>0.04466870516214611</v>
+        <v>0.04457919048710735</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.009975395806589682</v>
+        <v>0.007428617736837895</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -950,10 +950,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="1">
-        <v>0.1170421138910421</v>
+        <v>0.1169265960378903</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.008966527346122244</v>
+        <v>0.001874414245548239</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -967,10 +967,10 @@
         <v>65</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02869921300854188</v>
+        <v>0.02901518963752689</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002934565434565384</v>
+        <v>0.002303430243416615</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -984,10 +984,10 @@
         <v>63</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02433621347846999</v>
+        <v>0.02396738116824538</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02302207714113902</v>
+        <v>0.007411036163344153</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02442536094645045</v>
+        <v>0.02447902609539657</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.005807875479149738</v>
+        <v>0.02535342913891814</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01331074731710172</v>
+        <v>0.01332399256451521</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.007000302897721467</v>
+        <v>0.01748856126080311</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>62</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01468991987031358</v>
+        <v>0.0147705673659047</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.002541296060991072</v>
+        <v>0.009171974522292903</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03068643998322176</v>
+        <v>0.03092900358392294</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.000145985401459936</v>
+        <v>0.0003650167907722768</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0111295462035498</v>
+        <v>0.01109994025540701</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01062630816293653</v>
+        <v>-0.003010577705451656</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03688286097370239</v>
+        <v>0.037025390624118</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.004153913423699307</v>
+        <v>0.005268935236004468</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02363587574843929</v>
+        <v>0.02346792901517459</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01503626393065638</v>
+        <v>0.007004310344827624</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>63</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05375726712389213</v>
+        <v>0.05342467176224272</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01412499999999994</v>
+        <v>0.007861037149740069</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0412903595748935</v>
+        <v>0.04161800219439828</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0001157273463718855</v>
+        <v>0.02453703703703702</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.007987433940158439</v>
+        <v>0.008416476261196015</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/SQE_holdings.xlsx
+++ b/SQE_holdings.xlsx
@@ -221,7 +221,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -678,10 +678,10 @@
         <v>62</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01974717605567974</v>
+        <v>0.0194279610058282</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004024819721616391</v>
+        <v>-0.001346687989226436</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -695,10 +695,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01824249741731455</v>
+        <v>0.01784462923337963</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002392936710949867</v>
+        <v>0.008013995334888335</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -712,10 +712,10 @@
         <v>64</v>
       </c>
       <c r="D4" s="1">
-        <v>0.07529053047448407</v>
+        <v>0.07550252313305549</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003794664278174098</v>
+        <v>0.002882445826163149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -729,10 +729,10 @@
         <v>65</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05616819645840556</v>
+        <v>0.05527836224240571</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003234702163525283</v>
+        <v>-0.01107689825335145</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -746,10 +746,10 @@
         <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07115341685935515</v>
+        <v>0.07088646659394431</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01305501256632224</v>
+        <v>0.007889273356401327</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -763,10 +763,10 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01993684143026358</v>
+        <v>0.01989845627010383</v>
       </c>
       <c r="E7" s="1">
-        <v>0.009581263307310017</v>
+        <v>-0.007373595505617891</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -780,10 +780,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03327362888115944</v>
+        <v>0.03442732029979691</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03249097472924167</v>
+        <v>-0.01895151365985737</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -797,10 +797,10 @@
         <v>63</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02886165100095902</v>
+        <v>0.02848659289181998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009012392039053907</v>
+        <v>0.00169077587826405</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -814,10 +814,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02362944563972099</v>
+        <v>0.02348641004531917</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006096434509514026</v>
+        <v>0.009911894273127997</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -831,10 +831,10 @@
         <v>64</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02629574943337469</v>
+        <v>0.02598204179781815</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003434655675768394</v>
+        <v>-0.007552351527634782</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -848,10 +848,10 @@
         <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02601501457337559</v>
+        <v>0.02624962204290382</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01380008679299882</v>
+        <v>-0.003029788197984162</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -865,10 +865,10 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>0.04315429172852744</v>
+        <v>0.04304563402693106</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01114459722483829</v>
+        <v>-0.01457698762976301</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -882,10 +882,10 @@
         <v>63</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02334570021822055</v>
+        <v>0.02361306469465972</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01083228019498095</v>
+        <v>0.002467830072272248</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -899,10 +899,10 @@
         <v>62</v>
       </c>
       <c r="D15" s="1">
-        <v>0.04072205909160221</v>
+        <v>0.04031066661077213</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003962621244381292</v>
+        <v>-0.00123908425772945</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -916,10 +916,10 @@
         <v>66</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02953691994570754</v>
+        <v>0.03053387907810876</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03199946998807479</v>
+        <v>-0.01487341772151896</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -933,10 +933,10 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <v>0.04457919048710735</v>
+        <v>0.04466330526416563</v>
       </c>
       <c r="E17" s="1">
-        <v>0.007428617736837895</v>
+        <v>0.02170092661625289</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -950,10 +950,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="1">
-        <v>0.1169265960378903</v>
+        <v>0.1154305499933551</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001874414245548239</v>
+        <v>0.01319774989182187</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -967,10 +967,10 @@
         <v>65</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02901518963752689</v>
+        <v>0.02886655683984163</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002303430243416615</v>
+        <v>-0.001421332344580417</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -984,10 +984,10 @@
         <v>63</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02396738116824538</v>
+        <v>0.02439439901030987</v>
       </c>
       <c r="E20" s="1">
-        <v>0.007411036163344153</v>
+        <v>-0.01279707495429616</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02447902609539657</v>
+        <v>0.02459538150550755</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02535342913891814</v>
+        <v>-0.0001148369315572273</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01332399256451521</v>
+        <v>0.0135114644756007</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01748856126080311</v>
+        <v>-0.005875169158662708</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>62</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0147705673659047</v>
+        <v>0.01477637575639732</v>
       </c>
       <c r="E23" s="1">
-        <v>0.009171974522292903</v>
+        <v>-0.002766599597585517</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03092900358392294</v>
+        <v>0.03057996234254018</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0003650167907722768</v>
+        <v>-0.001239609158524058</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01109994025540701</v>
+        <v>0.01083298622229318</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.003010577705451656</v>
+        <v>0.004569593676670536</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>0.037025390624118</v>
+        <v>0.03710802838848015</v>
       </c>
       <c r="E26" s="1">
-        <v>0.005268935236004468</v>
+        <v>0.006009037592539235</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02346792901517459</v>
+        <v>0.02337164785131577</v>
       </c>
       <c r="E27" s="1">
-        <v>0.007004310344827624</v>
+        <v>-0.001068566340160282</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>63</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05342467176224272</v>
+        <v>0.05304109408210612</v>
       </c>
       <c r="E28" s="1">
-        <v>0.007861037149740069</v>
+        <v>0.01883381679068385</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="1">
-        <v>0.04161800219439828</v>
+        <v>0.04385461830124006</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02453703703703702</v>
+        <v>-0.003959214665364974</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008416476261196015</v>
+        <v>0.001465447808919107</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/SQE_holdings.xlsx
+++ b/SQE_holdings.xlsx
@@ -221,7 +221,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -678,10 +678,10 @@
         <v>62</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0194279610058282</v>
+        <v>0.01937340688741203</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001346687989226436</v>
+        <v>-0.01247366203118416</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -695,10 +695,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01784462923337963</v>
+        <v>0.0179613146396248</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008013995334888335</v>
+        <v>0.006313945224045936</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -712,10 +712,10 @@
         <v>64</v>
       </c>
       <c r="D4" s="1">
-        <v>0.07550252313305549</v>
+        <v>0.07560935350429848</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002882445826163149</v>
+        <v>0.007032271490440944</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -729,10 +729,10 @@
         <v>65</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05527836224240571</v>
+        <v>0.05458605643143968</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01107689825335145</v>
+        <v>0.001174755803076133</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -746,10 +746,10 @@
         <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07088646659394431</v>
+        <v>0.07134116255582018</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007889273356401327</v>
+        <v>0.02410052183466083</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -763,10 +763,10 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01989845627010383</v>
+        <v>0.01972283032389801</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.007373595505617891</v>
+        <v>-0.0003537318712416582</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -780,10 +780,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03442732029979691</v>
+        <v>0.0337254475855939</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01895151365985737</v>
+        <v>-0.02508780732563975</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -797,10 +797,10 @@
         <v>63</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02848659289181998</v>
+        <v>0.02849300232810415</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00169077587826405</v>
+        <v>0.01444111027756945</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -814,10 +814,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02348641004531917</v>
+        <v>0.02368449646509358</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009911894273127997</v>
+        <v>0.02253725917848048</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -831,10 +831,10 @@
         <v>64</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02598204179781815</v>
+        <v>0.02574808381174953</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007552351527634782</v>
+        <v>-0.0008647526807331607</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -848,10 +848,10 @@
         <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02624962204290382</v>
+        <v>0.02613179646396545</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.003029788197984162</v>
+        <v>-0.01266721576869534</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -865,10 +865,10 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>0.04304563402693106</v>
+        <v>0.04235608771626699</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01457698762976301</v>
+        <v>0.006844346317615546</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -882,10 +882,10 @@
         <v>63</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02361306469465972</v>
+        <v>0.02363669937650034</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002467830072272248</v>
+        <v>-0.0061543871988744</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -899,10 +899,10 @@
         <v>62</v>
       </c>
       <c r="D15" s="1">
-        <v>0.04031066661077213</v>
+        <v>0.04020180465181454</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.00123908425772945</v>
+        <v>0.006793879600637931</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -916,10 +916,10 @@
         <v>66</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03053387907810876</v>
+        <v>0.03003572015962446</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01487341772151896</v>
+        <v>-0.003405075489881226</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -933,10 +933,10 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <v>0.04466330526416563</v>
+        <v>0.04556576612201736</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02170092661625289</v>
+        <v>0.01847749602564441</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -950,10 +950,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="1">
-        <v>0.1154305499933551</v>
+        <v>0.1167828343732911</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01319774989182187</v>
+        <v>0.00544522741832143</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -967,10 +967,10 @@
         <v>65</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02886655683984163</v>
+        <v>0.02878334737558359</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001421332344580417</v>
+        <v>-0.0003094250881860994</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -984,10 +984,10 @@
         <v>63</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02439439901030987</v>
+        <v>0.02404698245995287</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01279707495429616</v>
+        <v>-0.02017283950617288</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02459538150550755</v>
+        <v>0.0245565706746752</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0001148369315572273</v>
+        <v>0.01389686459170791</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0135114644756007</v>
+        <v>0.01341242712428371</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.005875169158662708</v>
+        <v>-0.001460871874896186</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>62</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01477637575639732</v>
+        <v>0.01471393294038783</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.002766599597585517</v>
+        <v>0.007566204287515976</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03057996234254018</v>
+        <v>0.03049736284759023</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.001239609158524058</v>
+        <v>0.007373877491421377</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01083298622229318</v>
+        <v>0.0108665641849587</v>
       </c>
       <c r="E25" s="1">
-        <v>0.004569593676670536</v>
+        <v>-0.006515859355790687</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03710802838848015</v>
+        <v>0.03727638532884694</v>
       </c>
       <c r="E26" s="1">
-        <v>0.006009037592539235</v>
+        <v>-0.009079180006689946</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02337164785131577</v>
+        <v>0.02331251042778098</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.001068566340160282</v>
+        <v>0.004100552683187875</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>63</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05304109408210612</v>
+        <v>0.05396098332564424</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01883381679068385</v>
+        <v>0.01501959975242428</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="1">
-        <v>0.04385461830124006</v>
+        <v>0.04361706991378118</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.003959214665364974</v>
+        <v>-0.001252382248843054</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001465447808919107</v>
+        <v>0.004325042765034981</v>
       </c>
     </row>
     <row r="33" spans="1:1">
